--- a/Vizsgaremek tesztmenedzser.xlsx
+++ b/Vizsgaremek tesztmenedzser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAC9AA8-B1E3-4173-AF4E-4415D0FA29B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08BB5E5-2DDD-4795-86A8-D3390636D790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="420" windowWidth="24255" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesztesetek (test case)" sheetId="1" r:id="rId1"/>
@@ -404,61 +404,11 @@
     <t>Adatvédelmi Tájékoztató</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Nyissuk meg a weboldalt
-2. Azonosítsuk be az email mezőt
-3.Kattintsunk az email mezőre
-4. Küldjük el az email mezőnek a belépési email címet
-5.Azonosítsuk be a jelszómezőt
-6. Küldjök el a jelszómezőnek a jelszót
-7. Azonosítsuk be a belépési gombot
-8. Kattintsunk a belépési gombra
-9. Azonosítsuk be a kilépési gombot
-10. Kattintsunk a kilépési gombra
-11. Erősítsük meg hogy az átirányított weboldal megegyezik a https://kilepes.blog.hu/-val
-12. Csukjuk be a böngészőt
-</t>
-  </si>
-  <si>
-    <t>1.Nyissuk meg a weboldalt
-2. Azonosítsuk be az email mezőt
-3.Kattintsunk az email mezőre
-4. Küldjük el az email mezőnek a belépési email címet
-5.Azonosítsuk be a jelszómezőt
-6. Küldjök el a jelszómezőnek a jelszót
-7. Azonosítsuk be a belépési gombot
-8. Kattintsunk a belépési gombra
-9. Azonosítsuk be a kilépési gombot
-10. Kattintsunk a kilépési gombra
-11. Erősítsük meg hogy a kilépési weboldal cím megfelelő
-12. Zárjuk be a böngészőt
-13. Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
     <t>1. Chromedriver működőképes
 2. A weboldal elérhető</t>
   </si>
   <si>
     <t>TC11</t>
-  </si>
-  <si>
-    <t>1.Nyissuk meg a weboldalt
-2. Azonosítsuk be az email mezőt
-3. Küldjük el az email mezőnek a belépési email címet
-4.Azonosítsuk be a jelszómezőt
-5. Küldjök el a jelszómezőnek a jelszót
-6. Azonosítsuk be a belépési gombot
-7. Kattintsunk a belépési gombra
-8. Azonosítsuk be a beállítások menüpontot
-9. Kattintsunk a beállítások menüre
-10. Azonosítsuk be a "Magamról" mezőt
-11. Kattintsunk a "Magamról" mezőbe
-12.Küldjük el a megadott szöveget a "Magamról" mezőbe
-13. Azonosítsuk be a Felhasználási Feltételeket mezőt
-14. Kattintsunk a Felhasználási Feltételeket kipipáló mezőbe
-15. Azonosítsuk be az ok gombot
-16. Kattintsunk az ok gombra
-17. Erősítsük meg hogy a "Magamről" mező nem üres
-18. Zárjuk be a böngészőt</t>
   </si>
   <si>
     <t>1.Nyissuk meg a weboldalt
@@ -469,26 +419,185 @@
 6. Lépjünk ki a Chromedriverből</t>
   </si>
   <si>
+    <t>Index fórum adatvédelmi nyilatkozat címének fájlba történő kiírása</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Ismételt adatbevitel</t>
+  </si>
+  <si>
+    <t>Több keresési fogalom bevitele keresőmezőbe külső fájlból</t>
+  </si>
+  <si>
+    <t>1. Chromedriver működőképes
+2. A weboldal elérhető
+3. A keresési fogalmakat tartalmazó szöveges fájl elérhető</t>
+  </si>
+  <si>
+    <t>Adatvédelmi szöveg</t>
+  </si>
+  <si>
+    <t>Az Adatvédelmi Nyilatkozat címe sikeresen rögzítésre került a szöveges fájlban</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keresési fogalmakat tartalmazó szövef</t>
+  </si>
+  <si>
+    <t>A fórumon sikeresen megnyitottuk a felvitt fogalmak keresési találatait</t>
+  </si>
+  <si>
     <t>1.Nyissuk meg a weboldalt
-2.Azonosítsuk be az email mezőt
-3. Küldjük el az email mezőnek a belépési email címet
-4.Azonosítsuk be a jelszómezőt
-5. Küldjök el a jelszómezőnek a jelszót
-6. Azonosítsuk be a belépési gombot
-7. Kattintsunk a belépési gombra
-8. Azonosítsuk be a beállítások menüpontot
-9. Kattintsunk a beállítások menüpontra
-10. Azonosítsuk be a "Magamról mezőt a beállításoknál
-11. Töröljük az adatokat a "Magamról" mezőben
-12. Erősítsük meg hogy a "Magamról" mezőben nincsen szöveg
-13.Lépjünk ki a Chromedriverből</t>
+2.Azonosítsuk be a cookie képernyőt
+3.Okézzuk le a cookie képernyőt
+4. Azonosítsuk be a fórum keresési mezőt
+5. Kattintsunk a keresési mezőre
+6. Küldjük el a keresni kívánt fogalmat a keresési mezőbe
+7. Azonosítsuk be a keresés gombot
+8. Kattintsunk a keresés gombra
+9. Várjuk 5 másodpercet, amíg a keresési találatok második oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+10. . Várjuk 5 másodpercet, amíg a keresési találatok harmadik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+11. Várjunk 7 másodpercet amíg a keresési találatok negyedik oldalra vezető gombja láthatóvá nem válik és kattintsunk rá. 
+12. Várjunk 7 másodpercet míg a keresési találatok ötödik oldalra vezető gombja láthatóvá nem válik és kattintsunk rá
+13. Várjuk 7 másodpercet, amíg a keresési találatok hatodik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+14. Várjuk 7 másodpercet, amíg a keresési találatok hetedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+15. Várjuk 5 másodpercet, amíg a keresési találatok nyolcadik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+16. Várjuk 5 másodpercet, amíg a keresési találatok kilencedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+helyesen megjelenítette a keresési találat nyolcadik oldalát
+19.Lépjünk ki a Chromedriverből</t>
+  </si>
+  <si>
+    <t>1. Nyissuk meg a weboldalt
+2.Azonosítsuk be a cookies értesítőt
+3. Okézzuk le a cookies ablakot
+4. Azonosítsuk be a az adatvédelmi menüt
+5. Kattintsunk az adatvédelmi menüre
+6. Azonosítsuk be az adatvédelmi nyilatkozat címét
+7.Várakozzunk 5 másodpercet ameddig az adatvédelmi nyilatkozat nem látható
+8.Nyerjük ki a címet egy string-be
+9. Készítsünk egy új fájlt /kapjuk el az esetleges hibákat
+10. Try metódus segítségével írjunk a fájlba ameddig annak nem nulla az értéke
+11. Erősítsük meg hogy a fájlba kiírt cím hossza megegyezik az elvárttal
+12. Lépjünk ki a Chromedriverből</t>
+  </si>
+  <si>
+    <t>1. Nyissuk meg a weboldalt
+2. Nyissunk meg egy új Fileutil2-t
+3. Olvassuk be a fájl adatait
+4. Várjunk 5 másodpercet ameddig a cookies weboldal láthatóvá nem válik és okézzuk le
+5.Azonosítsuk be a keresőmezőt
+6.Küldjük el a keresőmezőnek a keresett fogalmakat
+7. Azonosítsuk be a keresés gombot
+8. Kattintsunk a keresés gombra
+9.Erősítsük meg, hogy a fórum keresési oldal fejléce látható
+10.Lépjünk ki a Chromedriverből</t>
+  </si>
+  <si>
+    <t>1.Nyissuk meg a weboldalt
+2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
+3. Azonosítsuk be az email mezőt 4.. Küldjük el az email mezőnek a belépési email címet
+5.Azonosítsuk be a jelszómezőt
+6. Küldjök el a jelszómezőnek a jelszót
+7. Azonosítsuk be a belépési gombot
+8. Kattintsunk a belépési gombra
+9. Azonosítsuk be a beállítások menüpontot
+10. Kattintsunk a beállítások menüre
+11. Azonosítsuk be a "Magamról" mezőt
+12. Kattintsunk a "Magamról" mezőbe
+13.Küldjük el a megadott szöveget a "Magamról" mezőbe
+14. Azonosítsuk be a Felhasználási Feltételeket mezőt
+15. Kattintsunk a Felhasználási Feltételeket kipipáló mezőbe
+16. Azonosítsuk be az ok gombot
+17. Kattintsunk az ok gombra
+18. Erősítsük meg hogy a "Magamről" mező nem üres
+19. Zárjuk be a böngészőt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
+3. Azonosítsuk be az email mezőt
+4.Kattintsunk az email mezőre
+5. Küldjük el az email mezőnek a belépési email címet
+6.Azonosítsuk be a jelszómezőt
+7. Küldjök el a jelszómezőnek a jelszót
+8. Azonosítsuk be a belépési gombot
+9. Kattintsunk a belépési gombra
+10. Azonosítsuk be a kilépési gombot
+11. Kattintsunk a kilépési gombra
+12. Erősítsük meg hogy az átirányított weboldal megegyezik a https://kilepes.blog.hu/-val
+13. Csukjuk be a böngészőt
+</t>
+  </si>
+  <si>
+    <t>1.Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
+3. Azonosítsuk be az email mezőt
+4.Kattintsunk az email mezőre
+5. Küldjük el az email mezőnek a belépési email címet
+6.Azonosítsuk be a jelszómezőt
+7. Küldjök el a jelszómezőnek a jelszót
+8. Azonosítsuk be a belépési gombot
+9. Kattintsunk a belépési gombra
+10. Azonosítsuk be a kilépési gombot
+11. Kattintsunk a kilépési gombra
+12. Erősítsük meg hogy a kilépési weboldal cím megfelelő
+13. Zárjuk be a böngészőt
+14. Lépjünk ki a Chromedriverből</t>
+  </si>
+  <si>
+    <t>1.Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
+3. Azonosítsuk be az email mezőt
+4. Küldjük el az email mezőnek a belépési email címet
+5.Azonosítsuk be a jelszómezőt
+6. Küldjök el a jelszómezőnek a jelszót
+7. Azonosítsuk be a belépési gombot
+8. Kattintsunk a belépési gombra
+9. Azonosítsuk be a beállítások menüpontot
+10. Kattintsunk a beállítások menüre
+11. Azonosítsuk be a weboldal mezőt
+12. Töröljük ki a beviteli mező tartalmát
+13. Küldjük el az email-cím mezőnek az email címet
+14. Azonosítsuk be a Felhasználási Feltételek mezőket
+15. Kattintsunk a felhasználási Feltételeket kipipáló mezőbe
+16. Azonosítsuk be az ok gombot
+17. Várakozzunk ameddig az OK gomb nem válik láthatóvá
+18. Kattintsunk az OK gombra
+19. Erősítsük meg hogy a weboldal mező nem üres
+20. Lépjünk ki a Chromedriverből</t>
+  </si>
+  <si>
+    <t>1.Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
+3.Azonosítsuk be az email mezőt
+4. Küldjük el az email mezőnek a belépési email címet
+5.Azonosítsuk be a jelszómezőt
+6. Küldjök el a jelszómezőnek a jelszót
+7. Azonosítsuk be a belépési gombot
+8. Kattintsunk a belépési gombra
+9. Azonosítsuk be a beállítások menüpontot
+10. Kattintsunk a beállítások menüpontra
+11. Azonosítsuk be a "Magamról mezőt a beállításoknál
+12. Töröljük az adatokat a "Magamról" mezőben
+13. Erősítsük meg hogy a "Magamról" mezőben nincsen szöveg
+14.Lépjünk ki a Chromedriverből</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le         
+3.Azonosítsuk be a keresési mezőt.
+4. Küldjük el a keresett kifejezést a keresőmezőbe
+5. Azonosítsuk be a keresési gombot.
+6. Kattintsuk a keresési gombra
+7. Várakoztassuk a tesztet 4 másodpercig
+8.Azonosítsuk be a keresési gombot az oldal fejlécében 
+9. Erősítsük meg, hogy az oldal fejlécében a keresési gomb látható.
+10. Lépjünk ki a Chromedriverből
+</t>
   </si>
   <si>
     <t>1. Nyissuk meg a weboldalt         2. Inicializáljuk a FileUtil-t
 3. olvassuk be az adatokat a fájlból
-4. Azonosítsuk be a belépési email-cím mezőt.
-5.Küldjük el a szöveges fájl 0.indexét a az email-cím mezőbe
-6. Küldjük el a szöveges fájl 7.indexét a jelszómezőbe
+4.Várjuk 5 másodpercet amíg a cookies képernyő láthatóvá nem válik majd okézzuk le azt
+5. Azonosítsuk be a belépési email-cím mezőt.
+6.Küldjük el a szöveges fájl 0.indexét a az email-cím mezőbe
+7. Küldjük el a szöveges fájl 1.indexét a jelszómezőbe
 8. Azonosítsuk be a belépési gombot
 9 Kattintsunk a belépési gombr
 10. Várakozassuk meg a tesztet 5 másodpercig ameddig a kilépési gomb nem látszik.
@@ -496,126 +605,20 @@
 12. Lépjünk ki a Chromedriverből</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Nyissuk meg a weboldalt        2. Azonosítsuk be a regisztrációs gombot
-3. Kattintsunk a regisztrációs gombra
-4.Azonosítsuk be az email-cím mezőt
-5. Küldjük be az email-cím mezőbe az előre definiált email címet
-6. Azonosítsuk be a jelszómezőt
-7. Küldjük be a jelszómezőbe az előre definiált jelszót
-8.Azonosítsuk be a nickname mezőt
-9. Küldjük be a mezőbe az előre definiált nicknevet
-10. Azonosítsuk be weboldal mezőt
-11. Küldjük be a weboldal-mezőbe a megadott weboldal linkjét
-12. Azonosítsuk be a Felhasználási Feltételeket, az Adatvédelmi Szabályzatot és az IndexFórum szabályzatát elfogadó pipa "mezőt".
-13. Kattintsunk be a mezőbe
-14. Várakoztassuk a kódot 5 másodpercig, amíg a a captcha mező nem válik láthatóvá
+    <t xml:space="preserve">1. Nyissuk meg a weboldalt      2.Várjunk 5 másodpercet amíg a cookies képernyő láthatóvá nem válik majd okézzuk le azt              3. Azonosítsuk be a regisztrációs gombot
+4. Kattintsunk a regisztrációs gombra
+5.Azonosítsuk be az email-cím mezőt
+6. Küldjük be az email-cím mezőbe az előre definiált email címet
+7. Azonosítsuk be a jelszómezőt
+8. Küldjük be a jelszómezőbe az előre definiált jelszót
+9.Azonosítsuk be a nickname mezőt
+10. Küldjük be a mezőbe az előre definiált nicknevet
+11. Azonosítsuk be weboldal mezőt
+12. Küldjük be a weboldal-mezőbe a megadott weboldal linkjét
+13. Azonosítsuk be a Felhasználási Feltételeket, az Adatvédelmi Szabályzatot és az IndexFórum szabályzatát elfogadó pipa "mezőt".
+14. Kattintsunk be a mezőbe
+15. Várakoztassuk a kódot 5 másodpercig, amíg a a captcha mező nem válik láthatóvá
 </t>
-  </si>
-  <si>
-    <t>1.Nyissuk meg a weboldalt
-2. Azonosítsuk be az email mezőt
-3. Küldjük el az email mezőnek a belépési email címet
-4.Azonosítsuk be a jelszómezőt
-5. Küldjök el a jelszómezőnek a jelszót
-6. Azonosítsuk be a belépési gombot
-7. Kattintsunk a belépési gombra
-8. Azonosítsuk be a beállítások menüpontot
-9. Kattintsunk a beállítások menüre
-10. Azonosítsuk be a weboldal mezőt
-11. Töröljük ki a beviteli mező tartalmát
-12. Küldjük el az email-cím mezőnek az email címet
-13. Azonosítsuk be a Felhasználási Feltételek mezőket
-14. Kattintsunk a felhasználási Feltételeket kipipáló mezőbe
-15. Azonosítsuk be az ok gombot
-16. Várakozzunk ameddig az OK gomb nem válik láthatóvá
-17. Kattintsunk az OK gombra
-18. Erősítsük meg hogy a weboldal mező nem üres
-19. Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Nyissuk meg a weboldalt
-2.Azonosítsuk be a keresési mezőt.
-3. Küldjük el a keresett kifejezést a keresőmezőbe
-4. Azonosítsuk be a keresési gombot.
-5. Kattintsuk a keresési gombra
-6. Várakoztassuk a tesztet 4 másodpercig
-7.Azonosítsuk be a keresési gombot az oldal fejlécében 
-8. Erősítsük meg, hogy az oldal fejlécében a keresési gomb látható.
-7. Lépjünk ki a Chromedriverből
-</t>
-  </si>
-  <si>
-    <t>Index fórum adatvédelmi nyilatkozat címének fájlba történő kiírása</t>
-  </si>
-  <si>
-    <t>1. Nyissuk meg a weboldalt
-2. Azonosítsuk be a az adatvédelmi menüt
-3. Kattintsunk az adatvédelmi menüre
-4. Azonosítsuk be az adatvédelmi nyilatkozat címét
-5.Várakozzunk 5 másodpercet ameddig az adatvédelmi nyilatkoat nem látható
-6.Nyerjük ki a címet egy string-be
-7. Készítsünk egy új fájlt /kapjuk el az esetleges hibákat
-8. Try metódus segítségével írjunk a fájlba ameddig annak nem nulla az értéke
-9. Erősítsük meg hogy a fájlba kiírt cím hossza megegyezik az elvárttal
-10. Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
-    <t>TC12</t>
-  </si>
-  <si>
-    <t>Ismételt adatbevitel</t>
-  </si>
-  <si>
-    <t>Több keresési fogalom bevitele keresőmezőbe külső fájlból</t>
-  </si>
-  <si>
-    <t>1. Chromedriver működőképes
-2. A weboldal elérhető
-3. A keresési fogalmakat tartalmazó szöveges fájl elérhető</t>
-  </si>
-  <si>
-    <t>Adatvédelmi szöveg</t>
-  </si>
-  <si>
-    <t>Az Adatvédelmi Nyilatkozat címe sikeresen rögzítésre került a szöveges fájlban</t>
-  </si>
-  <si>
-    <t>1. Nyissuk meg a weboldalt
-2. Nyissunk meg egy új Fileutil2-t
-3. Olvassuk be a fájl adatait
-3.Azonosítsuk be a keresőmezőt
-4.Küldjük el a keresőmezőnek a keresett fogalmakat
-5. Azonosítsuk be a keresés gombot
-6. Kattintsunk a keresés gombra
-7Erősítsük meg, hogy a fórum keresési oldal fejléce látható
-8.Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> keresési fogalmakat tartalmazó szövef</t>
-  </si>
-  <si>
-    <t>A fórumon sikeresen megnyitottuk a felvitt fogalmak keresési találatait</t>
-  </si>
-  <si>
-    <t>1.Nyissuk meg a weboldalt
-2. Azonosítsuk be a fórum keresési mezőt
-3. Kattintsunk a keresési mezőre
-4. Küldjük el a keresni kívánt fogalmat a keresési mezőbe
-5. Azonosítsuk be a keresés gombot
-6. Kattintsunk a keresés gombra
-7. Várjuk 5 másodpercet, amíg a keresési találatok második oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-8. Azonosítsuk be a harmadik oldalt
-9. Kattintsunk a harmadik oldalra
-10. Azonosítsuk be a negyedik oldalt
-11. Kattintsunk a negyedik oldalra
-12. Azonosítsuk be az ötödik oldalt
-13. Kattintsunk az ötödik oldalra
-14. Azonosítsuk be a hatodik oldalt
-15. Kattintsunk a hatodik oldalra
-16. Azonosítsuk be a hetedik oldalt
-17. Kattintsunk a nyolcadik oldalra
-18. Erősítsük meg hogy a böngésző helyesen megjelenítette a keresési találat nyolcadik oldalát
-19.Lépjünk ki a Chromedriverből</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1116,8 @@
   <dimension ref="A1:Y993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1253,7 +1256,7 @@
         <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>79</v>
@@ -1302,7 +1305,7 @@
         <v>68</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>79</v>
@@ -1331,7 +1334,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="227.25" customHeight="1">
+    <row r="5" spans="1:25" ht="291" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>84</v>
@@ -1400,7 +1403,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>94</v>
@@ -1449,7 +1452,7 @@
         <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>100</v>
@@ -1498,7 +1501,7 @@
         <v>68</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>88</v>
@@ -1547,7 +1550,7 @@
         <v>68</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>91</v>
@@ -1596,7 +1599,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>98</v>
@@ -1645,7 +1648,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>106</v>
@@ -1694,7 +1697,7 @@
         <v>68</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>111</v>
@@ -1725,16 +1728,16 @@
     </row>
     <row r="13" spans="1:25" ht="321" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -1743,16 +1746,16 @@
         <v>68</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>22</v>
@@ -1772,18 +1775,18 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="162" customHeight="1">
+    <row r="14" spans="1:25" ht="314.25" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>16</v>
@@ -1792,16 +1795,16 @@
         <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>22</v>

--- a/Vizsgaremek tesztmenedzser.xlsx
+++ b/Vizsgaremek tesztmenedzser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08BB5E5-2DDD-4795-86A8-D3390636D790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F58B74-7FDF-4F5D-98FB-79D08E0CECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="420" windowWidth="24255" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,18 +580,6 @@
 14.Lépjünk ki a Chromedriverből</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le         
-3.Azonosítsuk be a keresési mezőt.
-4. Küldjük el a keresett kifejezést a keresőmezőbe
-5. Azonosítsuk be a keresési gombot.
-6. Kattintsuk a keresési gombra
-7. Várakoztassuk a tesztet 4 másodpercig
-8.Azonosítsuk be a keresési gombot az oldal fejlécében 
-9. Erősítsük meg, hogy az oldal fejlécében a keresési gomb látható.
-10. Lépjünk ki a Chromedriverből
-</t>
-  </si>
-  <si>
     <t>1. Nyissuk meg a weboldalt         2. Inicializáljuk a FileUtil-t
 3. olvassuk be az adatokat a fájlból
 4.Várjuk 5 másodpercet amíg a cookies képernyő láthatóvá nem válik majd okézzuk le azt
@@ -618,6 +606,18 @@
 13. Azonosítsuk be a Felhasználási Feltételeket, az Adatvédelmi Szabályzatot és az IndexFórum szabályzatát elfogadó pipa "mezőt".
 14. Kattintsunk be a mezőbe
 15. Várakoztassuk a kódot 5 másodpercig, amíg a a captcha mező nem válik láthatóvá
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le         
+3.Azonosítsuk be a keresési mezőt.
+4. Küldjük el a keresett kifejezést a keresőmezőbe
+5. Azonosítsuk be a keresési gombot.
+6. Kattintsuk a keresési gombra
+7.Várjunk két másodpercig amíg a Fórum gomb nem látható
+8.Azonosítsuk be Fórum gombot az oldal fejlécében 
+9. Erősítsük meg, hogy az oldal fejlécében a Fórum gomb látható.
+10. Lépjünk ki a Chromedriverből
 </t>
   </si>
 </sst>
@@ -1116,8 +1116,8 @@
   <dimension ref="A1:Y993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1354,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>84</v>
@@ -1648,7 +1648,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>106</v>
@@ -1697,7 +1697,7 @@
         <v>68</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>111</v>

--- a/Vizsgaremek tesztmenedzser.xlsx
+++ b/Vizsgaremek tesztmenedzser.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Documents\GitHub\ExamworkProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F58B74-7FDF-4F5D-98FB-79D08E0CECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D831A66-EE23-4B1A-ADAE-BA47372DC59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="420" windowWidth="24255" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesztesetek (test case)" sheetId="1" r:id="rId1"/>
@@ -446,26 +446,6 @@
   </si>
   <si>
     <t>A fórumon sikeresen megnyitottuk a felvitt fogalmak keresési találatait</t>
-  </si>
-  <si>
-    <t>1.Nyissuk meg a weboldalt
-2.Azonosítsuk be a cookie képernyőt
-3.Okézzuk le a cookie képernyőt
-4. Azonosítsuk be a fórum keresési mezőt
-5. Kattintsunk a keresési mezőre
-6. Küldjük el a keresni kívánt fogalmat a keresési mezőbe
-7. Azonosítsuk be a keresés gombot
-8. Kattintsunk a keresés gombra
-9. Várjuk 5 másodpercet, amíg a keresési találatok második oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-10. . Várjuk 5 másodpercet, amíg a keresési találatok harmadik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-11. Várjunk 7 másodpercet amíg a keresési találatok negyedik oldalra vezető gombja láthatóvá nem válik és kattintsunk rá. 
-12. Várjunk 7 másodpercet míg a keresési találatok ötödik oldalra vezető gombja láthatóvá nem válik és kattintsunk rá
-13. Várjuk 7 másodpercet, amíg a keresési találatok hatodik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-14. Várjuk 7 másodpercet, amíg a keresési találatok hetedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-15. Várjuk 5 másodpercet, amíg a keresési találatok nyolcadik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-16. Várjuk 5 másodpercet, amíg a keresési találatok kilencedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-helyesen megjelenítette a keresési találat nyolcadik oldalát
-19.Lépjünk ki a Chromedriverből</t>
   </si>
   <si>
     <t>1. Nyissuk meg a weboldalt
@@ -619,6 +599,26 @@
 9. Erősítsük meg, hogy az oldal fejlécében a Fórum gomb látható.
 10. Lépjünk ki a Chromedriverből
 </t>
+  </si>
+  <si>
+    <t>1.Nyissuk meg a weboldalt
+2.Azonosítsuk be a cookie képernyőt
+3.Okézzuk le a cookie képernyőt
+4. Azonosítsuk be a fórum keresési mezőt
+5. Kattintsunk a keresési mezőre
+6. Küldjük el a keresni kívánt fogalmat a keresési mezőbe
+7. Azonosítsuk be a keresés gombot
+8. Kattintsunk a keresés gombra
+9. Várjuk 7 másodpercet, amíg a keresési találatok második oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+10. . Várjuk 7 másodpercet, amíg a keresési találatok harmadik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+11. Várjunk 7 másodpercet amíg a keresési találatok negyedik oldalra vezető gombja láthatóvá nem válik és kattintsunk rá. 
+12. Várjunk 7 másodpercet míg a keresési találatok ötödik oldalra vezető gombja láthatóvá nem válik és kattintsunk rá
+13. Várjuk 7 másodpercet, amíg a keresési találatok hatodik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+14. Várjuk 7 másodpercet, amíg a keresési találatok hetedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+15. Várjuk 7 másodpercet, amíg a keresési találatok nyolcadik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
+16. Várjuk 7 másodpercet, amíg a keresési találatok kilencedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.                                  17. Erősítsük meg hogy a böngésző 
+helyesen megjelenítette a keresési találat nyolcadik oldalát
+18.Lépjünk ki a Chromedriverből</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1116,8 @@
   <dimension ref="A1:Y993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1256,7 +1256,7 @@
         <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>79</v>
@@ -1305,7 +1305,7 @@
         <v>68</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>79</v>
@@ -1354,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>84</v>
@@ -1403,7 +1403,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>94</v>
@@ -1452,7 +1452,7 @@
         <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>100</v>
@@ -1550,7 +1550,7 @@
         <v>68</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>91</v>
@@ -1599,7 +1599,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>98</v>
@@ -1648,7 +1648,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>106</v>
@@ -1697,7 +1697,7 @@
         <v>68</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>111</v>
@@ -1746,7 +1746,7 @@
         <v>68</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>125</v>
@@ -1795,7 +1795,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>127</v>

--- a/Vizsgaremek tesztmenedzser.xlsx
+++ b/Vizsgaremek tesztmenedzser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Documents\GitHub\ExamworkProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D831A66-EE23-4B1A-ADAE-BA47372DC59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84460057-02B3-42CA-B1A3-40C2C42AC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
 13. Várjuk 7 másodpercet, amíg a keresési találatok hatodik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
 14. Várjuk 7 másodpercet, amíg a keresési találatok hetedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
 15. Várjuk 7 másodpercet, amíg a keresési találatok nyolcadik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-16. Várjuk 7 másodpercet, amíg a keresési találatok kilencedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.                                  17. Erősítsük meg hogy a böngésző 
+16. Várjuk 9 másodpercet, amíg a keresési találatok kilencedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.                                  17. Erősítsük meg hogy a böngésző 
 helyesen megjelenítette a keresési találat nyolcadik oldalát
 18.Lépjünk ki a Chromedriverből</t>
   </si>
@@ -1117,7 +1117,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/Vizsgaremek tesztmenedzser.xlsx
+++ b/Vizsgaremek tesztmenedzser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84460057-02B3-42CA-B1A3-40C2C42AC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FAB7DF5-F456-4BB3-98E0-211B2A894AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="139">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -291,16 +291,10 @@
     <t>Index fórumról történő kilépés</t>
   </si>
   <si>
-    <t>Sikeresen kijelentkeztünk a fórumról</t>
-  </si>
-  <si>
     <t>Index fórum találatainak a kilistázása</t>
   </si>
   <si>
     <t>keresett kifejezés</t>
-  </si>
-  <si>
-    <t>. A böngésző megjeleníti a keresési találatokat</t>
   </si>
   <si>
     <t>1.A Chromedriver működőképes
@@ -323,9 +317,6 @@
     <t>Keresési kifejezés</t>
   </si>
   <si>
-    <t>A fórum keresési találatai között sikeresen tudunk lépkedni</t>
-  </si>
-  <si>
     <t>Profil adat Bemutatkozó kitöltése</t>
   </si>
   <si>
@@ -333,13 +324,7 @@
 2. Magamról mező adatai</t>
   </si>
   <si>
-    <t>A "Magamról" mező sikeresen ki lett töltve</t>
-  </si>
-  <si>
     <t>Adat törlése</t>
-  </si>
-  <si>
-    <t>Index fórum keresési előzmények törlése</t>
   </si>
   <si>
     <t>Belépési adatok</t>
@@ -372,9 +357,6 @@
     <t xml:space="preserve"> szöveges fájl</t>
   </si>
   <si>
-    <t>Sikeresen bejelentkeztünk a fórumra</t>
-  </si>
-  <si>
     <t>Regisztráció</t>
   </si>
   <si>
@@ -411,14 +393,6 @@
     <t>TC11</t>
   </si>
   <si>
-    <t>1.Nyissuk meg a weboldalt
-2. Azonosítsuk be a weboldal alján található összefoglaló szöveget
-3. Nyerjük ki az összefoglaló  mező szövegét
-4.Nyomtassuk ki az összefoglaló szöveget a console-ba
-5. Erősítsük meg hogy a helyes szöveget nyertük ki a weboldalról
-6. Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
     <t>Index fórum adatvédelmi nyilatkozat címének fájlba történő kiírása</t>
   </si>
   <si>
@@ -445,180 +419,154 @@
     <t xml:space="preserve"> keresési fogalmakat tartalmazó szövef</t>
   </si>
   <si>
-    <t>A fórumon sikeresen megnyitottuk a felvitt fogalmak keresési találatait</t>
+    <t xml:space="preserve">1. Nyissuk meg a weboldalt 
+2. Okézzuk le a cookies ablakot
+3.Kattintsunk a keresési mezőbe.
+4.Írjuk be a keresett kifejezést a keresési mezőbe
+5. Kattintsuk a keresési gombra
+</t>
+  </si>
+  <si>
+    <t>1.Nyissuk meg a weboldalt
+2. Kattintsunk az email mezőre
+3. Írjuk be az email mezőbe az email címet
+5.Kattintsunk a jelszómezőbe
+6.Írjuk be a jelszót
+7. Kattintsunk a belépési gombra
+8. Kattintsunk a beállítások menüre
+9. Kattintsunk a "Magamról" mezőbe
+10. Írjuk be a Magamről mezőbe a megadott szöveget
+11. Kattintsunk a Felhasználási Feltételeket kipipáló mezőbe
+12. Zárjuk be a böngészőt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Nyissuk meg a weboldalt 2.Okézzuk le a cookie képernyőt 3.Kattintsunk az email mezőre
+4. Írjuk be az email címet
+5. Kattintsunk a jelszómezőre
+6. Írjuk be a jelszót
+7. Kattintsunk a belépési gombra
+8. Kattintsunk a kilépési gombra
+9. Zárjuk be a böngészőt
+</t>
+  </si>
+  <si>
+    <t>A kilépési gomb látható</t>
+  </si>
+  <si>
+    <t>A forum header element látható</t>
+  </si>
+  <si>
+    <t>A "Magamról" mező nem üres</t>
+  </si>
+  <si>
+    <t>1.Nyissuk meg a weboldalt 
+2. Okézzuk le a cookies ablakot
+3.Kattintsunk az email mezőre
+4. Írjuk be a belépési email címet
+5.Kattintsunk a jelszómezőre
+6. Írjuk be a jelszót
+7. Kattintsunk a belépési gombra
+8. Kattintsunk a beállítások menüre
+9. Kattintsunk a weboldal mezőre
+10. Töröljük ki  a weboldal mező tartalmát
+11. Módosítsuk a weboldal mező tartalmát
+12. Kattintsunk a felhasználási Feltételeket kipipáló mezőbe
+13. Kattintsunk az OK gombra
+14. Lépjünk ki a böngészőből</t>
+  </si>
+  <si>
+    <t>1.Nyissuk meg a weboldalt 
+2. Okézzuk le a cookies ablakot
+3.Kattintsunk az email mezőre
+4. Írjuk be az email címet
+5.Kattintsunk a jelszó mezőre
+6. Írjuk be a jelszót
+7. Kattintsunk a belépési gombra
+8.Kattintsunk a beállítások menüpontra
+9. Kattintsunk a "Magamról" mezőbe
+10. Töröljük az adatokat a "Magamról" mezőben
+11. Pipázzuk ki az ÁSZF elfogadása gombot
+12. Mentsük el a változtatásokat
+13.Lépjünk ki a Chromedriverből</t>
+  </si>
+  <si>
+    <t>"Magamről" mező tartalmának törlése a beállításoknál</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Nyissuk meg a weboldalt 
+2. Okézzuk le a cookies értesítést
+3. Kattintsunk az email mezőre
+4. Írjuk be az email címet
+5. Kattintsunk a jelszó mezőre
+6. Írjuk be a jelszót
+7. Kattintsunk a belépési gombra
+</t>
+  </si>
+  <si>
+    <t>1.Nyissuk meg a weboldalt
+2. Lépjünk ki a böngészőből</t>
+  </si>
+  <si>
+    <t>A counter integer száma megegyezik a kilenccel</t>
   </si>
   <si>
     <t>1. Nyissuk meg a weboldalt
-2.Azonosítsuk be a cookies értesítőt
-3. Okézzuk le a cookies ablakot
-4. Azonosítsuk be a az adatvédelmi menüt
-5. Kattintsunk az adatvédelmi menüre
-6. Azonosítsuk be az adatvédelmi nyilatkozat címét
-7.Várakozzunk 5 másodpercet ameddig az adatvédelmi nyilatkozat nem látható
-8.Nyerjük ki a címet egy string-be
-9. Készítsünk egy új fájlt /kapjuk el az esetleges hibákat
-10. Try metódus segítségével írjunk a fájlba ameddig annak nem nulla az értéke
-11. Erősítsük meg hogy a fájlba kiírt cím hossza megegyezik az elvárttal
-12. Lépjünk ki a Chromedriverből</t>
+2. Okézzuk le a cookies ablakot
+3. Kattintsunk az adatvédelmi menüpontra
+4. Lépjünk ki a böngészőből</t>
   </si>
   <si>
     <t>1. Nyissuk meg a weboldalt
-2. Nyissunk meg egy új Fileutil2-t
-3. Olvassuk be a fájl adatait
-4. Várjunk 5 másodpercet ameddig a cookies weboldal láthatóvá nem válik és okézzuk le
-5.Azonosítsuk be a keresőmezőt
-6.Küldjük el a keresőmezőnek a keresett fogalmakat
-7. Azonosítsuk be a keresés gombot
-8. Kattintsunk a keresés gombra
-9.Erősítsük meg, hogy a fórum keresési oldal fejléce látható
-10.Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
-    <t>1.Nyissuk meg a weboldalt
-2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
-3. Azonosítsuk be az email mezőt 4.. Küldjük el az email mezőnek a belépési email címet
-5.Azonosítsuk be a jelszómezőt
-6. Küldjök el a jelszómezőnek a jelszót
-7. Azonosítsuk be a belépési gombot
-8. Kattintsunk a belépési gombra
-9. Azonosítsuk be a beállítások menüpontot
-10. Kattintsunk a beállítások menüre
-11. Azonosítsuk be a "Magamról" mezőt
-12. Kattintsunk a "Magamról" mezőbe
-13.Küldjük el a megadott szöveget a "Magamról" mezőbe
-14. Azonosítsuk be a Felhasználási Feltételeket mezőt
-15. Kattintsunk a Felhasználási Feltételeket kipipáló mezőbe
-16. Azonosítsuk be az ok gombot
-17. Kattintsunk az ok gombra
-18. Erősítsük meg hogy a "Magamről" mező nem üres
-19. Zárjuk be a böngészőt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
-3. Azonosítsuk be az email mezőt
-4.Kattintsunk az email mezőre
-5. Küldjük el az email mezőnek a belépési email címet
-6.Azonosítsuk be a jelszómezőt
-7. Küldjök el a jelszómezőnek a jelszót
-8. Azonosítsuk be a belépési gombot
-9. Kattintsunk a belépési gombra
-10. Azonosítsuk be a kilépési gombot
-11. Kattintsunk a kilépési gombra
-12. Erősítsük meg hogy az átirányított weboldal megegyezik a https://kilepes.blog.hu/-val
-13. Csukjuk be a böngészőt
+2.  OKézzuk le a cookies ablakot
+3.Kattintsunk a keresőmezőre
+4.Írjuk be a keresett szót
+5. Kattintsunk a keresés gombra
+6.Lépjünk ki a böngészőből</t>
+  </si>
+  <si>
+    <t>A fórum header elem sikeresen látható</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nyissuk meg a weboldalt      2.Okézzuk le a cookies ablakot       
+3. Kattintsunk a regisztrációs gombra
+4.Kattintsunk az email-cím mezőre
+5. Írjuk be az email címet
+6. Kattintsunk a jelszómezőre
+7. Írjuk be a jelszót
+8. Kattintsunk a nicknév mezőre
+9. Írjuk be a kívánt nicknevet
+11. Kattintsunk a weboldal mezőre
+12. Írjuk be a weboldal címét
+13. Kattintsunk az ÁSZF-et elfogadó pipára
 </t>
   </si>
   <si>
-    <t>1.Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
-3. Azonosítsuk be az email mezőt
-4.Kattintsunk az email mezőre
-5. Küldjük el az email mezőnek a belépési email címet
-6.Azonosítsuk be a jelszómezőt
-7. Küldjök el a jelszómezőnek a jelszót
-8. Azonosítsuk be a belépési gombot
-9. Kattintsunk a belépési gombra
-10. Azonosítsuk be a kilépési gombot
-11. Kattintsunk a kilépési gombra
-12. Erősítsük meg hogy a kilépési weboldal cím megfelelő
-13. Zárjuk be a böngészőt
-14. Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
-    <t>1.Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
-3. Azonosítsuk be az email mezőt
-4. Küldjük el az email mezőnek a belépési email címet
-5.Azonosítsuk be a jelszómezőt
-6. Küldjök el a jelszómezőnek a jelszót
-7. Azonosítsuk be a belépési gombot
-8. Kattintsunk a belépési gombra
-9. Azonosítsuk be a beállítások menüpontot
-10. Kattintsunk a beállítások menüre
-11. Azonosítsuk be a weboldal mezőt
-12. Töröljük ki a beviteli mező tartalmát
-13. Küldjük el az email-cím mezőnek az email címet
-14. Azonosítsuk be a Felhasználási Feltételek mezőket
-15. Kattintsunk a felhasználási Feltételeket kipipáló mezőbe
-16. Azonosítsuk be az ok gombot
-17. Várakozzunk ameddig az OK gomb nem válik láthatóvá
-18. Kattintsunk az OK gombra
-19. Erősítsük meg hogy a weboldal mező nem üres
-20. Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
-    <t>1.Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le
-3.Azonosítsuk be az email mezőt
-4. Küldjük el az email mezőnek a belépési email címet
-5.Azonosítsuk be a jelszómezőt
-6. Küldjök el a jelszómezőnek a jelszót
-7. Azonosítsuk be a belépési gombot
-8. Kattintsunk a belépési gombra
-9. Azonosítsuk be a beállítások menüpontot
-10. Kattintsunk a beállítások menüpontra
-11. Azonosítsuk be a "Magamról mezőt a beállításoknál
-12. Töröljük az adatokat a "Magamról" mezőben
-13. Erősítsük meg hogy a "Magamról" mezőben nincsen szöveg
-14.Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
-    <t>1. Nyissuk meg a weboldalt         2. Inicializáljuk a FileUtil-t
-3. olvassuk be az adatokat a fájlból
-4.Várjuk 5 másodpercet amíg a cookies képernyő láthatóvá nem válik majd okézzuk le azt
-5. Azonosítsuk be a belépési email-cím mezőt.
-6.Küldjük el a szöveges fájl 0.indexét a az email-cím mezőbe
-7. Küldjük el a szöveges fájl 1.indexét a jelszómezőbe
-8. Azonosítsuk be a belépési gombot
-9 Kattintsunk a belépési gombr
-10. Várakozassuk meg a tesztet 5 másodpercig ameddig a kilépési gomb nem látszik.
-11. Erősítsük meg, hogy a kijelentkezési gomb látható
-12. Lépjünk ki a Chromedriverből</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Nyissuk meg a weboldalt      2.Várjunk 5 másodpercet amíg a cookies képernyő láthatóvá nem válik majd okézzuk le azt              3. Azonosítsuk be a regisztrációs gombot
-4. Kattintsunk a regisztrációs gombra
-5.Azonosítsuk be az email-cím mezőt
-6. Küldjük be az email-cím mezőbe az előre definiált email címet
-7. Azonosítsuk be a jelszómezőt
-8. Küldjük be a jelszómezőbe az előre definiált jelszót
-9.Azonosítsuk be a nickname mezőt
-10. Küldjük be a mezőbe az előre definiált nicknevet
-11. Azonosítsuk be weboldal mezőt
-12. Küldjük be a weboldal-mezőbe a megadott weboldal linkjét
-13. Azonosítsuk be a Felhasználási Feltételeket, az Adatvédelmi Szabályzatot és az IndexFórum szabályzatát elfogadó pipa "mezőt".
-14. Kattintsunk be a mezőbe
-15. Várakoztassuk a kódot 5 másodpercig, amíg a a captcha mező nem válik láthatóvá
+    <t xml:space="preserve">1.Nyissuk meg a weboldalt
+2. okézzuk le a cookie ablakot
+3. Kattintsunk a keresési mezőre
+4.Írjuk be a keresett szót
+5.. Kattintsunk a keresés gombra
+6. Kattintsunk a második oldalra
+7. Kattintsunk a harmadik oldalra
+8. Kattintsunk a negyedik oldalra
+9.Kattintsunk az ötödik oldalra
+10.Kattintsunk a hatodik oldalra 
+11. Kattintsunk a hetedik oldalr
+12. Kattintsunk a nyolcadik oldalra
+13. Kattintsunk a kilencedik oldalra
+14. Lépjünk ki a böngészőből
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Nyissuk meg a weboldalt 2.Várjunk 5 másodpercet ameddig a cookies ablak láthatóvá nem válik és okézzuk azt le         
-3.Azonosítsuk be a keresési mezőt.
-4. Küldjük el a keresett kifejezést a keresőmezőbe
-5. Azonosítsuk be a keresési gombot.
-6. Kattintsuk a keresési gombra
-7.Várjunk két másodpercig amíg a Fórum gomb nem látható
-8.Azonosítsuk be Fórum gombot az oldal fejlécében 
-9. Erősítsük meg, hogy az oldal fejlécében a Fórum gomb látható.
-10. Lépjünk ki a Chromedriverből
+    <t xml:space="preserve">1. Nyissuk meg a weboldalt         
+2.Okézzuk le a cookies ablakot
+3. Kattintsunk az email cím mezőre
+4. Írjuk be az email címet
+5. Kattintsunk a jelszómezőre
+6. Írjuk be a jelszót
+7 Kattintsunk a belépési gomba
+8.Lépjünk ki a böngészőből
 </t>
-  </si>
-  <si>
-    <t>1.Nyissuk meg a weboldalt
-2.Azonosítsuk be a cookie képernyőt
-3.Okézzuk le a cookie képernyőt
-4. Azonosítsuk be a fórum keresési mezőt
-5. Kattintsunk a keresési mezőre
-6. Küldjük el a keresni kívánt fogalmat a keresési mezőbe
-7. Azonosítsuk be a keresés gombot
-8. Kattintsunk a keresés gombra
-9. Várjuk 7 másodpercet, amíg a keresési találatok második oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-10. . Várjuk 7 másodpercet, amíg a keresési találatok harmadik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-11. Várjunk 7 másodpercet amíg a keresési találatok negyedik oldalra vezető gombja láthatóvá nem válik és kattintsunk rá. 
-12. Várjunk 7 másodpercet míg a keresési találatok ötödik oldalra vezető gombja láthatóvá nem válik és kattintsunk rá
-13. Várjuk 7 másodpercet, amíg a keresési találatok hatodik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-14. Várjuk 7 másodpercet, amíg a keresési találatok hetedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-15. Várjuk 7 másodpercet, amíg a keresési találatok nyolcadik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.
-16. Várjuk 9 másodpercet, amíg a keresési találatok kilencedik oldalra vezető gombja láthatóvá nem válik, és kattintsunk rá.                                  17. Erősítsük meg hogy a böngésző 
-helyesen megjelenítette a keresési találat nyolcadik oldalát
-18.Lépjünk ki a Chromedriverből</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1064,8 @@
   <dimension ref="A1:Y993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1247,7 +1195,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -1256,16 +1204,16 @@
         <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>79</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>82</v>
+        <v>124</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>22</v>
@@ -1296,7 +1244,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -1305,16 +1253,16 @@
         <v>68</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>22</v>
@@ -1342,7 +1290,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>80</v>
@@ -1354,16 +1302,16 @@
         <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>85</v>
+        <v>125</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>22</v>
@@ -1391,10 +1339,10 @@
         <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -1403,16 +1351,16 @@
         <v>68</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>22</v>
@@ -1440,10 +1388,10 @@
         <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -1452,16 +1400,16 @@
         <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>22</v>
@@ -1489,7 +1437,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>80</v>
@@ -1501,16 +1449,16 @@
         <v>68</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>22</v>
@@ -1538,7 +1486,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>80</v>
@@ -1550,16 +1498,16 @@
         <v>68</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>22</v>
@@ -1584,10 +1532,10 @@
         <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>80</v>
@@ -1599,16 +1547,16 @@
         <v>68</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>22</v>
@@ -1630,16 +1578,16 @@
     </row>
     <row r="11" spans="1:25" ht="291" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -1648,16 +1596,16 @@
         <v>68</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>22</v>
@@ -1679,16 +1627,16 @@
     </row>
     <row r="12" spans="1:25" ht="409.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -1697,19 +1645,19 @@
         <v>68</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="2"/>
@@ -1728,16 +1676,16 @@
     </row>
     <row r="13" spans="1:25" ht="321" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -1746,16 +1694,16 @@
         <v>68</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>22</v>
@@ -1777,16 +1725,16 @@
     </row>
     <row r="14" spans="1:25" ht="314.25" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>16</v>
@@ -1795,16 +1743,16 @@
         <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>22</v>

--- a/Vizsgaremek tesztmenedzser.xlsx
+++ b/Vizsgaremek tesztmenedzser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Documents\GitHub\ExamworkProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84460057-02B3-42CA-B1A3-40C2C42AC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B34A37-2559-4AB8-BAAB-CD9A5285F3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,8 +1116,8 @@
   <dimension ref="A1:Y993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/Vizsgaremek tesztmenedzser.xlsx
+++ b/Vizsgaremek tesztmenedzser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Documents\GitHub\ExamworkProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FAB7DF5-F456-4BB3-98E0-211B2A894AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6558C27B-9426-47B4-B1D4-441C476D6DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:Y993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/Vizsgaremek tesztmenedzser.xlsx
+++ b/Vizsgaremek tesztmenedzser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsuya Hiroki\Documents\GitHub\ExamworkProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6558C27B-9426-47B4-B1D4-441C476D6DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C653612-387C-49C0-BFD8-19167594D963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="130">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -65,36 +65,7 @@
     <t>Megjegyzés (Comment)</t>
   </si>
   <si>
-    <t>TC0</t>
-  </si>
-  <si>
-    <t>Minta teszteset</t>
-  </si>
-  <si>
-    <t>Minta teszteet leíeása</t>
-  </si>
-  <si>
-    <t>Azok az előfeltételek, amik szükségesek a teszteset lefuttatásához, mint pl: mérőeszköz megléte, elérhető tesztkörnyezet</t>
-  </si>
-  <si>
     <t>Normál</t>
-  </si>
-  <si>
-    <t>Felelős</t>
-  </si>
-  <si>
-    <t>1. Lépés 1
-2. Lépés 2
-3. Lépés 3</t>
-  </si>
-  <si>
-    <t>Szükésges tesztadat</t>
-  </si>
-  <si>
-    <t>Elvárt eredmény megfogalmazása</t>
-  </si>
-  <si>
-    <t>A tesztfuttatás során tapasztalt tényleges eredmény. Sikeres futás megegyezik az elvárt eredménnyel</t>
   </si>
   <si>
     <t>Siker</t>
@@ -525,20 +496,6 @@
   </si>
   <si>
     <t>A fórum header elem sikeresen látható</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Nyissuk meg a weboldalt      2.Okézzuk le a cookies ablakot       
-3. Kattintsunk a regisztrációs gombra
-4.Kattintsunk az email-cím mezőre
-5. Írjuk be az email címet
-6. Kattintsunk a jelszómezőre
-7. Írjuk be a jelszót
-8. Kattintsunk a nicknév mezőre
-9. Írjuk be a kívánt nicknevet
-11. Kattintsunk a weboldal mezőre
-12. Írjuk be a weboldal címét
-13. Kattintsunk az ÁSZF-et elfogadó pipára
-</t>
   </si>
   <si>
     <t xml:space="preserve">1.Nyissuk meg a weboldalt
@@ -566,6 +523,22 @@
 6. Írjuk be a jelszót
 7 Kattintsunk a belépési gomba
 8.Lépjünk ki a böngészőből
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nyissuk meg a weboldalt      2.Okézzuk le a cookies ablakot       
+3. Kattintsunk a regisztrációs gombra
+4.Kattintsunk az email-cím mezőre
+5. Írjuk be az email címet
+6. Kattintsunk a jelszómezőre
+7. Írjuk be a jelszót
+8. kattintsunk az ismételt jelszómezőre
+9. írjuk be a jelszót
+10. Kattintsunk a nicknév mezőre
+11. Írjuk be a kívánt nicknevet
+12. Kattintsunk a weboldal mezőre
+13. Írjuk be a weboldal címét
+14. Kattintsunk az ÁSZF-et elfogadó pipára
 </t>
   </si>
 </sst>
@@ -592,11 +565,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFB7B7B7"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -616,6 +584,10 @@
       <color rgb="FF434343"/>
       <name val="Helvetica Neue"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -665,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -677,35 +649,461 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1061,11 +1459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y993"/>
+  <dimension ref="A1:Y990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1135,41 +1533,41 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="60" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:25" ht="256.5" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="F2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="5"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1185,40 +1583,40 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="302.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="7"/>
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="5"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1235,39 +1633,39 @@
     </row>
     <row r="4" spans="1:25" ht="300.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1282,41 +1680,41 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="291" customHeight="1">
+    <row r="5" spans="1:25" ht="291" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1331,41 +1729,41 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" ht="409.5" customHeight="1">
+    <row r="6" spans="1:25" ht="409.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="7"/>
+      <c r="H6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="5"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1380,41 +1778,41 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="409.5" customHeight="1">
+    <row r="7" spans="1:25" ht="409.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1429,41 +1827,41 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" ht="137.25" customHeight="1">
+    <row r="8" spans="1:25" ht="137.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="L8" s="5"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1478,42 +1876,41 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="409.5" customHeight="1">
+    <row r="9" spans="1:25" ht="409.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>137</v>
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1527,41 +1924,41 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" ht="375" customHeight="1">
+    <row r="10" spans="1:25" ht="375" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="L10" s="5"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1578,39 +1975,39 @@
     </row>
     <row r="11" spans="1:25" ht="291" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="5"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1625,41 +2022,41 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="409.5" customHeight="1">
+    <row r="12" spans="1:25" ht="321" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>104</v>
+      <c r="B12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="5"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1674,41 +2071,41 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="321" customHeight="1">
+    <row r="13" spans="1:25" ht="117" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="7"/>
+      <c r="J13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="5"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1723,41 +2120,19 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="314.25" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="7"/>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1772,19 +2147,19 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="60" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7"/>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -7066,85 +7441,9 @@
     </row>
     <row r="211" spans="1:25" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2"/>
-      <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
-    </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2"/>
-      <c r="V212" s="2"/>
-      <c r="W212" s="2"/>
-      <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
-    </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2"/>
-      <c r="V213" s="2"/>
-      <c r="W213" s="2"/>
-      <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
-    </row>
+    </row>
+    <row r="212" spans="1:25" ht="15.75" customHeight="1"/>
+    <row r="213" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="214" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="215" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="216" spans="1:25" ht="15.75" customHeight="1"/>
@@ -7922,45 +8221,313 @@
     <row r="988" ht="15.75" customHeight="1"/>
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="E2:E15">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K6">
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K6">
+    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K6">
+    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+      <formula>"Alacsony"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+      <formula>"Normál"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+      <formula>"Magas"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+      <formula>"Siker"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>"Nem futtatható"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>"Hiba"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E15">
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E15">
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K15">
+  <conditionalFormatting sqref="K13">
     <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K15">
+  <conditionalFormatting sqref="K13">
     <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K15">
+  <conditionalFormatting sqref="K13">
     <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="K2:K15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="K2:K13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7990,1457 +8557,1457 @@
     <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="45.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="102.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="48" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="6">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
         <v>4.3</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>39</v>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="48" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="48" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="48" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="48" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="48" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="48" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="48" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="48" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="115.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
     </row>
     <row r="117" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
     </row>
     <row r="118" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
     </row>
     <row r="130" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
     </row>
     <row r="132" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
     </row>
     <row r="134" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
     </row>
     <row r="135" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
     </row>
     <row r="136" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
     </row>
     <row r="137" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
     </row>
     <row r="138" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
     </row>
     <row r="139" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
     </row>
     <row r="140" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
     </row>
     <row r="142" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
     </row>
     <row r="143" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
     </row>
     <row r="144" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
     </row>
     <row r="145" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
     </row>
     <row r="146" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
     </row>
     <row r="147" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
     </row>
     <row r="148" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
     </row>
     <row r="149" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
     </row>
     <row r="150" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
     </row>
     <row r="151" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
     </row>
     <row r="152" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
     </row>
     <row r="153" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
     </row>
     <row r="154" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
     </row>
     <row r="155" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
     </row>
     <row r="156" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
     </row>
     <row r="157" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
     </row>
     <row r="158" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
     </row>
     <row r="159" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
     </row>
     <row r="160" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
     </row>
     <row r="161" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
     </row>
     <row r="162" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
     </row>
     <row r="163" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
     </row>
     <row r="164" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
     </row>
     <row r="165" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
     </row>
     <row r="166" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
     </row>
     <row r="167" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
     </row>
     <row r="169" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
     </row>
     <row r="170" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
     </row>
     <row r="171" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
     </row>
     <row r="172" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
     </row>
     <row r="173" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
     </row>
     <row r="174" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
     </row>
     <row r="175" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
     </row>
     <row r="177" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
     </row>
     <row r="179" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
     </row>
     <row r="180" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
     </row>
     <row r="181" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
     </row>
     <row r="182" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
     </row>
     <row r="183" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
     </row>
     <row r="184" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
     </row>
     <row r="185" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
     </row>
     <row r="186" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
     </row>
     <row r="187" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
     </row>
     <row r="188" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
     </row>
     <row r="189" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
     </row>
     <row r="190" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
     </row>
     <row r="191" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
     </row>
     <row r="192" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
     </row>
     <row r="193" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
     </row>
     <row r="194" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
     </row>
     <row r="195" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
     </row>
     <row r="196" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
     </row>
     <row r="197" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
     </row>
     <row r="198" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
     </row>
     <row r="199" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
     </row>
     <row r="200" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
     </row>
     <row r="201" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
     </row>
     <row r="202" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="9"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
     </row>
     <row r="203" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
-      <c r="E203" s="9"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
     </row>
     <row r="204" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="9"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
     </row>
     <row r="205" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="9"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
     </row>
     <row r="206" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="9"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
     </row>
     <row r="207" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
     </row>
     <row r="208" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
     </row>
     <row r="209" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
     </row>
     <row r="210" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
     </row>
     <row r="211" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
-      <c r="E211" s="9"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
     </row>
     <row r="212" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-      <c r="E212" s="9"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
     </row>
     <row r="213" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
     </row>
     <row r="214" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
     </row>
     <row r="215" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
     </row>
     <row r="216" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
     </row>
     <row r="217" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
     </row>
     <row r="218" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
     </row>
     <row r="219" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
     </row>
     <row r="220" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
     </row>
     <row r="221" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="222" spans="2:5" ht="15.75" customHeight="1"/>
